--- a/biology/Mycologie/Pleurote_du_panicaut/Pleurote_du_panicaut.xlsx
+++ b/biology/Mycologie/Pleurote_du_panicaut/Pleurote_du_panicaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleurotus eryngii, le pleurote de panicaut, ou encore argouane, bérigoule ou girboulot, est une espèce de champignons basidiomycètes du genre Pleurotus de la famille des Pleurotacées. Comme Pleurotus ostreatus, il peut  être cultivé.
 </t>
@@ -511,20 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses noms, scientifique et vernaculaire, proviennent des apiacées (ombellifères) du genre Eryngium auxquelles il est inféodé.
-Nom binomial accepté
-Pleurotus eryngii var. eryngii (DC.) Quél 1872
-Synonymes
-Agaricus eryngii DC. 1815 (synonyme)
-Dendrosarcus eryngii (DC.) Kuntze 1898 (synonyme)
-Pleurotus fuscus Battarra Bres ex. 1928 (synonyme)
-Variétés
-Pleurotus eryngii var. elaeoselini Venturella, Zervakis &amp; La Rocca 2000
-Pleurotus eryngii var. ferulae (Lanzi) Sacc. 1887
-Noms vernaculaires
-Connu et apprecié depuis fort longtemps dans le Sud de la France, ce champignon est désigné par un nombre important de noms vernaculaires en langue d'Oc et en basque : pleurote de panicot, argouagne, argouane, babissou, beigoula, bérigoula, bérigoule, berigoulo, bolet dau baja preire, bouligoule, boulingoulo, bridoulo, brigoule, brigoulo, grigoulo, canicot, cardoueto, champignon de garrigues, champignon du panicaut, canquesto, congue, corgne, couderlo, congouerto, doridelle, escouderme, fougga, gingoule, girboulot de panicot, onglet, oreille de chardon, oreillette, panichaou, panicau, ragoule, ringoule.
 </t>
         </is>
       </c>
@@ -550,10 +553,161 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pleurotus eryngii var. eryngii (DC.) Quél 1872
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agaricus eryngii DC. 1815 (synonyme)
+Dendrosarcus eryngii (DC.) Kuntze 1898 (synonyme)
+Pleurotus fuscus Battarra Bres ex. 1928 (synonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pleurotus eryngii var. elaeoselini Venturella, Zervakis &amp; La Rocca 2000
+Pleurotus eryngii var. ferulae (Lanzi) Sacc. 1887</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connu et apprecié depuis fort longtemps dans le Sud de la France, ce champignon est désigné par un nombre important de noms vernaculaires en langue d'Oc et en basque : pleurote de panicot, argouagne, argouane, babissou, beigoula, bérigoula, bérigoule, berigoulo, bolet dau baja preire, bouligoule, boulingoulo, bridoulo, brigoule, brigoulo, grigoulo, canicot, cardoueto, champignon de garrigues, champignon du panicaut, canquesto, congue, corgne, couderlo, congouerto, doridelle, escouderme, fougga, gingoule, girboulot de panicot, onglet, oreille de chardon, oreillette, panichaou, panicau, ragoule, ringoule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore : chapeau de 5 à 8 cm, cornucopié, convexe puis aplani à déprimé, cette espèce est très polymorphe pouvant prendre l'aspect d'une langue, commun chez les pleurotes, ou au contraire celui d'un tricholome.
 cuticule : lisse, tomenteuse, au début parfois écailleuse, mais vite glabre ; gris brunâtre, brun pâle, brun roux ou brun bistre, mais il peut devenir plus clair en vieillissant.
@@ -567,93 +721,99 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plutôt méridional, ce pleurote pousse en terrain dégagé sur les racines des panicauts, faux chardons du genre Eryngium, notamment sur le panicaut champêtre et le panicaut maritime[1]. Ce champignon n'est cependant pas réellement mycorhizien étant donné qu'il est cultivé en tant que saprophyte sur de la matière organique. 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plutôt méridional, ce pleurote pousse en terrain dégagé sur les racines des panicauts, faux chardons du genre Eryngium, notamment sur le panicaut champêtre et le panicaut maritime. Ce champignon n'est cependant pas réellement mycorhizien étant donné qu'il est cultivé en tant que saprophyte sur de la matière organique. 
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Comestibilité et mise en culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pleurote du panicaut, est un excellent comestible. Sa culture a été entreprise, mais à une moindre échelle que Pleurotus ostreatus.[réf. nécessaire]
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Bio-accumulation des métaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Une étude faite par Didier Michelot (CNRS) en France à partir de 3 000 mesures de 15 métaux chez 120 spécimens de champignons de diverses espèces a détecté quatre espèces particulièrement accumulatrices : 
 Suillus variegatus (Boletus) (94 ppm),
@@ -663,98 +823,104 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Propriété pharmacologique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pleurote du panicaut, comme tout champignon, semble renforcer le système immunitaire, qui est accentuée par la cuisson[2],[3]. Elle contient en particulier deux polysaccharides anti-inflammatoires via une action sur les macrophages[4].[pas clair]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pleurote du panicaut, comme tout champignon, semble renforcer le système immunitaire, qui est accentuée par la cuisson,. Elle contient en particulier deux polysaccharides anti-inflammatoires via une action sur les macrophages.[pas clair]
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La technique culturale du pleurote du panicaut[5] ressemble à celle du Grifola frondosa. Le substrat est d'origine végétale et on distingue une phase d'incubation et une phase de fructification. Durant la première phase le mycélium va envahir le substrat et durant la deuxième le sporophore se développe. Les conditions climatiques (humidité de l'air, température et CO2) sont sévèrement contrôlées.
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La technique culturale du pleurote du panicaut ressemble à celle du Grifola frondosa. Le substrat est d'origine végétale et on distingue une phase d'incubation et une phase de fructification. Durant la première phase le mycélium va envahir le substrat et durant la deuxième le sporophore se développe. Les conditions climatiques (humidité de l'air, température et CO2) sont sévèrement contrôlées.
 Une espèce voisine plus grande, Pleurotus ferulae, pousse sur les racines des férules, et Pleurotus elaeoselini pousse sur les Laserpitium.
 Il ne présente guère de risque de confusion, du fait de sa stricte dépendance du panicaut ou d'autres ombellifères similaires.
-Une étude chinoise a également montré que l'ajout d'extrait d'ase fétide au substrat de culture du champignon Pleurotus eryngii accélérait la croissance du mycélium et des sporophores, ainsi que les qualités organoleptiques et nutritives du champignon[6].
+Une étude chinoise a également montré que l'ajout d'extrait d'ase fétide au substrat de culture du champignon Pleurotus eryngii accélérait la croissance du mycélium et des sporophores, ainsi que les qualités organoleptiques et nutritives du champignon.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pleurote_du_panicaut</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Le champignon le plus long du monde</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 25 juillet 2014, le Livre Guinness des records inscrit un pleurote de panicaut japonais comme le plus long champignon comestible mesuré à 59 cm. Il a été cultivé à Nagano par Hokuto Corp[7].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25 juillet 2014, le Livre Guinness des records inscrit un pleurote de panicaut japonais comme le plus long champignon comestible mesuré à 59 cm. Il a été cultivé à Nagano par Hokuto Corp.
 </t>
         </is>
       </c>
